--- a/Model/abbreviations.xlsx
+++ b/Model/abbreviations.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$151</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="262">
   <si>
     <t>word</t>
   </si>
@@ -87,15 +87,9 @@
     <t>điện_thoại</t>
   </si>
   <si>
-    <t>camera tele</t>
-  </si>
-  <si>
     <t>camera_tele</t>
   </si>
   <si>
-    <t>chip snapdragon</t>
-  </si>
-  <si>
     <t>chip_snapdragon</t>
   </si>
   <si>
@@ -792,15 +786,6 @@
     <t>camera</t>
   </si>
   <si>
-    <t>nghiệm</t>
-  </si>
-  <si>
-    <t>trải_nghiệm</t>
-  </si>
-  <si>
-    <t>trải</t>
-  </si>
-  <si>
     <t>chả</t>
   </si>
   <si>
@@ -808,12 +793,6 @@
   </si>
   <si>
     <t>màn</t>
-  </si>
-  <si>
-    <t>ảnh</t>
-  </si>
-  <si>
-    <t>hình_ảnh</t>
   </si>
   <si>
     <t>màng</t>
@@ -1146,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,74 +1227,74 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1302,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,23 +1310,23 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1334,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,7 +1342,7 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,111 +1350,111 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,63 +1462,63 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1547,31 +1526,31 @@
         <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,52 +1558,52 @@
         <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
@@ -1632,138 +1611,138 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1771,7 +1750,7 @@
         <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1779,7 +1758,7 @@
         <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1787,63 +1766,63 @@
         <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,23 +1830,23 @@
         <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B89" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,79 +1854,79 @@
         <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B99" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1955,31 +1934,31 @@
         <v>166</v>
       </c>
       <c r="B100" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +1966,7 @@
         <v>172</v>
       </c>
       <c r="B104" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,87 +1974,87 @@
         <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +2062,7 @@
         <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,151 +2070,151 @@
         <v>193</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B123" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B132" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B133" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B134" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2243,7 +2222,7 @@
         <v>225</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2251,7 +2230,7 @@
         <v>226</v>
       </c>
       <c r="B137" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2238,7 @@
         <v>227</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,39 +2246,39 @@
         <v>228</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B141" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B143" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,7 +2286,7 @@
         <v>235</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2315,23 +2294,23 @@
         <v>236</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B146" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2339,7 +2318,7 @@
         <v>240</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2347,63 +2326,63 @@
         <v>241</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B154" t="s">
-        <v>253</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" t="s">
         <v>256</v>
-      </c>
-      <c r="B156" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,71 +2390,15 @@
         <v>258</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>260</v>
-      </c>
-      <c r="B159" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
         <v>261</v>
-      </c>
-      <c r="B160" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>262</v>
-      </c>
-      <c r="B161" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>264</v>
-      </c>
-      <c r="B162" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>224</v>
-      </c>
-      <c r="B163" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>265</v>
-      </c>
-      <c r="B164" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>267</v>
-      </c>
-      <c r="B165" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Model/abbreviations.xlsx
+++ b/Model/abbreviations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B284"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3841,6 +3841,4674 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ctrai</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>con_trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>khôg</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>bme</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>bố_mẹ</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>cta</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>chúng_ta</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>mih</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>mình</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>mqh</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>mối_quan_hệ</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>cgai</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>con_gái</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>nhữg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>những</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>mng</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>mọi_người</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>svtn</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>sinh_viên_tình_nguyện</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>qtam</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>quan_tâm</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>thươg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>thương</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>qtâm</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>quan_tâm</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>chug</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>chung</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>trườg</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>trường</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>thoy</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>thôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>đki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>đăng_ký</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>atsm</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>ảo_tưởng_sức_mạnh</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ạk</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ạ</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>công_việc</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>vch</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>vãi_chưởng</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>cùg</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>cùng</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>pn</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>bạn</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>pjt</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>biết</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>thjk</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>thích</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>keke</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ce_ce</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>ktra</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>kiểm_tra</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>nek</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>nè</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>cgái</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>con_gái</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>nthe</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>như_thế</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>chúg</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>chúng</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>kái</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>cái</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>tìh</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>tình</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>phòg</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>phòng</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>lòg</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>lòng</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>từg</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>từng</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>rằg</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>rằng</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>sốg</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>sống</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>thuj</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>thôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>thuơng</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>thương</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>càg</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>càng</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>đky</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>đăng_ký</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>bằg</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>bằng</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>sviên</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>sinh_viên</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ák</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>á</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>đág</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>đáng</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>nvay</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>như_vậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>nhjeu</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>nhiều</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>xg</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>xuống</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>zồi</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>trag</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>trang</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>zữ</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>dữ</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>atrai</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>anh_trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>kte</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>kinh_tế</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>độg</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>động</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>lmht</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>liên_minh_huyền_thoại</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>gắg</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>gắng</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>đzai</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>đẹp_trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>thgian</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>thời_gian</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>plz</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>pờ_ly</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>đồg</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>đồng</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>btrai</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>bạn_trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>nthê</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>như_thế</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>hìhì</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>hì_hì</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>vọg</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>vọng</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>hihe</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>hi_he</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>đôg</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>đông</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>răg</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>răng</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>thườg</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>thường</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>tcảm</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>tình_cảm</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>đứg</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>đứng</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>ksao</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>không_sao</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>dz</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>đẹp_trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>hjxhjx</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>hix_hix</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>cmày</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>chúng_mày</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>xuốg</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>xuống</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>nkư</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>như</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>lquan</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liên_quan</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>tiếg</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>tiếng</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>hajz</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>xih</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>xinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>hìh</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>hình</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>thàh</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>thành</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>ngke</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>nghe</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>dzậy</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>dậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>teencode</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>tin_cốt</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>tnào</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>thế_nào</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>tưởg</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>tưởng</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ctrinh</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>chương_trình</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>phog</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>phong</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>hôg</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>zìa</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>kũg</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>cũng</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ntnao</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>như_thế_nào</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>trọg</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>trọng</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>nthế</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>như_thế</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>năg</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>năng</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ngđó</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>người_đó</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>lquen</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>làm_quen</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>riêg</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>riêng</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ngag</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>ngang</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>hêhê</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>hê_hê</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>bnhiu</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>bao_nhiêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ngốk</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>ngốc</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>kậu</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>cậu</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>highland</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>hai_lừn</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>kqua</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>kết_quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>htrc</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>hôm_trước</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>địh</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>định</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>gđình</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>gia_đinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>giốg</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>giống</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>csống</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>cuộc_sống</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>xug</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>xùng</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>zùi</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>bnhiêu</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>bao_nhiêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>cbị</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>chuẩn_bị</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>kòn</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>còn</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>buôg</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>buông</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>csong</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>cuộc_sống</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>chàg</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>chàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>chăg</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>chăng</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ngàh</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>ngành</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>llac</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>liên_lạc</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>nkưng</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>nhưng</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>nắg</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>nắng</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>tíh</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>tính</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>khoảg</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>khoảng</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>thík</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>thích</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>ngđo</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>người_đó</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>ngkhác</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>người_khác</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>thẳg</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>thẳng</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>kảm</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>cảm</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>dàh</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>dành</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>júp</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>giúp</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>lặg</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>lặng</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>vđê</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>vấn_đề</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>bbè</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>bạn_bè</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>bóg</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>bóng</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>dky</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>đăng_ký</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>dòg</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>dòng</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>uốg</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>uống</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>tyêu</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>tình_yêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>snvv</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>sinh_nhật_vui_vẻ</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>đthoại</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>điện_thoại</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>qhe</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>quan_hệ</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>cviec</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>công_việc</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>tượg</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>tượng</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>qà</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>quà</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>thjc</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>thích</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>nhưq</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>nhưng</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>cđời</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>cuộc_đời</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>bthường</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>bình_thường</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>zà</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>già</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>đáh</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>đánh</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>xloi</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>xin_lỗi</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>zám</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>dám</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>qtrọng</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>quan_trọng</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>bìh</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>bình</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>lzi</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>làm_gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>qhệ</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>quan_hệ</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>đhbkhn</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>đại_học_bách_khoa_hà_nội</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>hajzz</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>kủa</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>của</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>lz</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>làm_gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>đhkhtn</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>đại_học_khoa_học_tự_nhiên</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>đóg</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>đóng</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>cka</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>cha</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>lgi</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>làm_gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>nvậy</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>như_vậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>qả</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>đkiện</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>điều_kiện</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>nèk</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>nè</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>tlai</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>tương_lai</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>bsĩ</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>bác_sĩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>hkì</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>học_kỳ</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>đcsvn</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>đảng_cộng_sản_việt_nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>vde</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>vấn_đề</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>chta</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>chúng_ta</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>òy</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>ltinh</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>linh_tinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>ngyeu</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>người_yêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>đthoai</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>điện_thoại</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>snghĩ</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>suy_nghĩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>nặg</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>nặng</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>họk</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>học</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>dừg</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>dừng</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>hphúc</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>hạnh_phúc</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>hiha</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>hi_ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>wtâm</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>quan_tâm</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>thíck</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>thích</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>chuện</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>chuyện</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>lạh</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>lạnh</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>fây</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>phây</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>ntnày</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>như_thế_này</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>lúk</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>lúc</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>haj</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>hai</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>ngía</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>nghía</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>mớj</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>mới</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>hsơ</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>hồ_sơ</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>ctraj</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>con_trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>nyêu</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>người_yêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>điiiiiii</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>đi</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>rồii</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>chị</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>kih</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>kinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>kb</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>kết_bạn</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>hixxx</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>hích</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>dthương</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>dễ_thương</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>nhiềuuu</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>nhiều</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>ctrình</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>chương_trình</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>mìnk</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>mình</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>mjh</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>mình</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>người</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>vc</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>vợ_chồng</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>uhm</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>ừm</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>thỳ</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>thì</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>nyc</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>người_yêu_cũ</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>tks</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>thanks</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>nàg</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>nàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>thôii</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>thôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>đjên</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>điên</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>bgái</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>bạn_gái</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>vớii</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>với</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>xink</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>xinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>hđộng</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>hành_động</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>đhọc</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>đại_học</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>mk</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>mình</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>bn</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>bạn</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>thik</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>thích</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>cj</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>chị</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>mn</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>mọi_người</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>nguoi</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>người</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>nógn</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>nóng</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>hok</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>ko</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>bik</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>biết</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>với</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>cx</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>cũng</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>mik</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>mình</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>wtf</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>what_the_fuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>đc</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>được</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>cmt</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>ck</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>chồng</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>chk</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>chồng</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>ngta</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>người_ta</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>gđ</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>gia_đình</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>oh</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>ồ</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>vk</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>vợ</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>ctác</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>công_tác</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>sg</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>sài_gòn</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>ae</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>anh_em</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>ah</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>à</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>ạh</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>ạ</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>rì</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>ms</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>mới</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>vn</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>việt_nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>nhaa</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>nha</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>cũg</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>cũng</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>đag</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>đang</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>ơiii</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>ơi</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>hic</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>hích</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>ace</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>anh_chị_em</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>àk</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>à</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>uh</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>ừ</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>cmm</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>con_mẹ_mày</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>cmnr</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>con_mẹ_nó_rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>ơiiii</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>ơi</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>hnay</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>hôm_nay</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>ukm</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>ừm</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>tq</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>trung_quốc</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>ctr</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>chương_trình</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>đii</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>đi</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>nch</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>nói_chuyện</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>trieu</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>triệu</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>hahah</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>ha_ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>nta</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>người_ta</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>ngèo</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>nghèo</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>kêh</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>kênh</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>ak</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>à</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>ad</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>ny</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>người_yêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>dc</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>được</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>qc</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>quảng_cáo</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>baoh</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>bao_giờ</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>zui</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>vui</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>zẻ</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>vẻ</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>tym</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>tim</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>aye</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>anh_yêu_em</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>eya</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>em_yêu_anh</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>fb</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>insta</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>instagram</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>vậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>thich</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>thích</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>vcl</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>vờ_cờ_lờ</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>đt</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>điện_thoại</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>acc</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>account</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>lol</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>lồn</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>loz</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>lồn</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>lozz</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>lồn</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>trc</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>trước</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>chs</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>chẳng_hiểu_sao</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>đhs</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>đéo_hiểu_sao</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>qá</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>quá</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>ntn</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>như_thế_nào</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>wá</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>quá</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>zậy</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>vậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>zô</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>dô</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>ytb</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>youtube</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>vđ</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>vãi_đái</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>vchg</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>vãi_chưởng</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>sml</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>sấp_mặt_lờ</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>xl</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>xin_lỗi</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>cmn</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>con_mẹ_nó</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>hjhj</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>hi_hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>vv</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>vui_vẻ</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>nói</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>iu</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>yêu</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>vcđ</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>vãi_cả_đái</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>in4</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>quằn_què</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>subcribe</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>kh</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>zạ</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>vậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>oy</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>rồi</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>jo</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>giờ</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>clmm</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>cái_lồn_mẹ_mày</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>bsvv</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>buổi_sáng_vui_vẻ</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>troai</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>trai</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>wa</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>quá</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>hjx</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>hix</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>em</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>ik</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>ý</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>ji</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>gì</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>ce</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>chị_em</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>lm</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>làm</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>đz</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>đẹp_giai</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>sr</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>sorry</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>ib</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>inbox</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>hoy</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>thôi</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>đbh</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>đéo_bao_giờ</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>vd</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>ví_dụ</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>anh</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>cũng z</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>cũng_vậy</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>z là</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>vậy_là</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>unf</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>unfriend</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>my fen</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>my_friend</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>fen</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>friend</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>cty</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>công_ty</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>on lai</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>u hai ba</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>u23</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>kô</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>đtqg</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>đội_tuyển_quốc_gia</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>hqua</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>hôm_qua</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>xog</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>xong</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>uk</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>ừ</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>nhoé</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>nhé</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>biet</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>biết</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>quí</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>quý</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>stk</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>số_tài_khoản</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>hong kong</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>hồng_kông</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>đươc</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>được</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>nghành</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>ngành</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>nvqs</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>nghĩa_vụ_quân_sự</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>ngừoi</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>người</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>trog</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>trong</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>tgian</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>thời_gian</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>biêt</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>biết</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>fải</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>phải</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>nguời</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>người</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>tđn</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>thế_đéo_nào</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>bth</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>bình_thường</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>tgdd</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>thế_giới_di_động</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>khg</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>không</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>nhưg</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>nhưng</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>thpt</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>trung_học_phổ_thông</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>thằg</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>thằng</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>đuợc</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>được</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>àh</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>à</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>ku</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>cu</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>thým</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>thím</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>onl</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>zú</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>vú</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>cmnd</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>chứng_minh_nhân_dân</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>sđt</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>số_điện_thoại</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>klq</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>không_liên_quan</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
